--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/73/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/73/FD_Curve.xlsx
@@ -466,21 +466,21 @@
         <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>0.746265</v>
+        <v>1.07001</v>
       </c>
       <c r="C3" t="n">
-        <v>746.265</v>
+        <v>1070.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620039</v>
+        <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8115570000000001</v>
+        <v>1.50224</v>
       </c>
       <c r="C4" t="n">
-        <v>811.557</v>
+        <v>1502.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>0.851617</v>
+        <v>1.74975</v>
       </c>
       <c r="C5" t="n">
-        <v>851.617</v>
+        <v>1749.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.123979</v>
       </c>
       <c r="B6" t="n">
-        <v>0.866278</v>
+        <v>1.90153</v>
       </c>
       <c r="C6" t="n">
-        <v>866.278</v>
+        <v>1901.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.155009</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8794810000000001</v>
+        <v>1.95622</v>
       </c>
       <c r="C7" t="n">
-        <v>879.481</v>
+        <v>1956.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.185985</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8896670000000001</v>
+        <v>1.98247</v>
       </c>
       <c r="C8" t="n">
-        <v>889.667</v>
+        <v>1982.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216962</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9002519999999999</v>
+        <v>2.00579</v>
       </c>
       <c r="C9" t="n">
-        <v>900.252</v>
+        <v>2005.79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247938</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9092920000000001</v>
+        <v>2.02531</v>
       </c>
       <c r="C10" t="n">
-        <v>909.292</v>
+        <v>2025.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278877</v>
+        <v>0.278865</v>
       </c>
       <c r="B11" t="n">
-        <v>0.918202</v>
+        <v>2.04237</v>
       </c>
       <c r="C11" t="n">
-        <v>918.202</v>
+        <v>2042.37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309802</v>
+        <v>0.30979</v>
       </c>
       <c r="B12" t="n">
-        <v>0.926535</v>
+        <v>2.05885</v>
       </c>
       <c r="C12" t="n">
-        <v>926.535</v>
+        <v>2058.85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340727</v>
+        <v>0.340715</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9346000000000001</v>
+        <v>2.07499</v>
       </c>
       <c r="C13" t="n">
-        <v>934.6</v>
+        <v>2074.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371652</v>
+        <v>0.37164</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9421390000000001</v>
+        <v>2.08945</v>
       </c>
       <c r="C14" t="n">
-        <v>942.139</v>
+        <v>2089.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402577</v>
+        <v>0.402565</v>
       </c>
       <c r="B15" t="n">
-        <v>0.949458</v>
+        <v>2.1035</v>
       </c>
       <c r="C15" t="n">
-        <v>949.458</v>
+        <v>2103.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433502</v>
+        <v>0.43349</v>
       </c>
       <c r="B16" t="n">
-        <v>0.956542</v>
+        <v>2.11721</v>
       </c>
       <c r="C16" t="n">
-        <v>956.542</v>
+        <v>2117.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464422</v>
+        <v>0.464415</v>
       </c>
       <c r="B17" t="n">
-        <v>0.963433</v>
+        <v>2.13043</v>
       </c>
       <c r="C17" t="n">
-        <v>963.433</v>
+        <v>2130.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495347</v>
+        <v>0.49534</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9701240000000001</v>
+        <v>2.14306</v>
       </c>
       <c r="C18" t="n">
-        <v>970.124</v>
+        <v>2143.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526272</v>
+        <v>0.526266</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9766280000000001</v>
+        <v>2.15526</v>
       </c>
       <c r="C19" t="n">
-        <v>976.628</v>
+        <v>2155.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571970000000001</v>
+        <v>0.557191</v>
       </c>
       <c r="B20" t="n">
-        <v>0.982832</v>
+        <v>2.16713</v>
       </c>
       <c r="C20" t="n">
-        <v>982.832</v>
+        <v>2167.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588122</v>
+        <v>0.588116</v>
       </c>
       <c r="B21" t="n">
-        <v>0.988946</v>
+        <v>2.17868</v>
       </c>
       <c r="C21" t="n">
-        <v>988.946</v>
+        <v>2178.68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619164</v>
+        <v>0.619153</v>
       </c>
       <c r="B22" t="n">
-        <v>0.994977</v>
+        <v>2.19</v>
       </c>
       <c r="C22" t="n">
-        <v>994.977</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6503409999999999</v>
+        <v>0.65033</v>
       </c>
       <c r="B23" t="n">
-        <v>1.00086</v>
+        <v>2.20104</v>
       </c>
       <c r="C23" t="n">
-        <v>1000.86</v>
+        <v>2201.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681514</v>
+        <v>0.681503</v>
       </c>
       <c r="B24" t="n">
-        <v>1.00663</v>
+        <v>2.21182</v>
       </c>
       <c r="C24" t="n">
-        <v>1006.63</v>
+        <v>2211.82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712687</v>
+        <v>0.71268</v>
       </c>
       <c r="B25" t="n">
-        <v>1.01229</v>
+        <v>2.22239</v>
       </c>
       <c r="C25" t="n">
-        <v>1012.29</v>
+        <v>2222.39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743864</v>
+        <v>0.743852</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01782</v>
+        <v>2.23274</v>
       </c>
       <c r="C26" t="n">
-        <v>1017.82</v>
+        <v>2232.74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7750359999999999</v>
+        <v>0.775025</v>
       </c>
       <c r="B27" t="n">
-        <v>1.0233</v>
+        <v>2.2429</v>
       </c>
       <c r="C27" t="n">
-        <v>1023.3</v>
+        <v>2242.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806209</v>
+        <v>0.806202</v>
       </c>
       <c r="B28" t="n">
-        <v>1.02864</v>
+        <v>2.25288</v>
       </c>
       <c r="C28" t="n">
-        <v>1028.64</v>
+        <v>2252.88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837386</v>
+        <v>0.837374</v>
       </c>
       <c r="B29" t="n">
-        <v>1.03392</v>
+        <v>2.2627</v>
       </c>
       <c r="C29" t="n">
-        <v>1033.92</v>
+        <v>2262.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685580000000001</v>
+        <v>0.868547</v>
       </c>
       <c r="B30" t="n">
-        <v>1.03912</v>
+        <v>2.27234</v>
       </c>
       <c r="C30" t="n">
-        <v>1039.12</v>
+        <v>2272.34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8997309999999999</v>
+        <v>0.899724</v>
       </c>
       <c r="B31" t="n">
-        <v>1.04423</v>
+        <v>2.28182</v>
       </c>
       <c r="C31" t="n">
-        <v>1044.23</v>
+        <v>2281.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930908</v>
+        <v>0.930897</v>
       </c>
       <c r="B32" t="n">
-        <v>1.04927</v>
+        <v>2.29118</v>
       </c>
       <c r="C32" t="n">
-        <v>1049.27</v>
+        <v>2291.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.96208</v>
+        <v>0.962074</v>
       </c>
       <c r="B33" t="n">
-        <v>1.05423</v>
+        <v>2.3004</v>
       </c>
       <c r="C33" t="n">
-        <v>1054.23</v>
+        <v>2300.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9932569999999999</v>
+        <v>0.993246</v>
       </c>
       <c r="B34" t="n">
-        <v>1.05913</v>
+        <v>2.30947</v>
       </c>
       <c r="C34" t="n">
-        <v>1059.13</v>
+        <v>2309.47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02429</v>
+        <v>1.02456</v>
       </c>
       <c r="B35" t="n">
-        <v>1.06395</v>
+        <v>2.31844</v>
       </c>
       <c r="C35" t="n">
-        <v>1063.95</v>
+        <v>2318.44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05526</v>
+        <v>1.05594</v>
       </c>
       <c r="B36" t="n">
-        <v>1.06872</v>
+        <v>2.3273</v>
       </c>
       <c r="C36" t="n">
-        <v>1068.72</v>
+        <v>2327.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08623</v>
+        <v>1.08718</v>
       </c>
       <c r="B37" t="n">
-        <v>1.07342</v>
+        <v>2.33606</v>
       </c>
       <c r="C37" t="n">
-        <v>1073.42</v>
+        <v>2336.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.1172</v>
+        <v>1.11815</v>
       </c>
       <c r="B38" t="n">
-        <v>1.07801</v>
+        <v>2.34466</v>
       </c>
       <c r="C38" t="n">
-        <v>1078.01</v>
+        <v>2344.66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14816</v>
+        <v>1.14912</v>
       </c>
       <c r="B39" t="n">
-        <v>1.08254</v>
+        <v>2.3532</v>
       </c>
       <c r="C39" t="n">
-        <v>1082.54</v>
+        <v>2353.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17913</v>
+        <v>1.18008</v>
       </c>
       <c r="B40" t="n">
-        <v>1.08703</v>
+        <v>2.36164</v>
       </c>
       <c r="C40" t="n">
-        <v>1087.03</v>
+        <v>2361.64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.2101</v>
+        <v>1.21105</v>
       </c>
       <c r="B41" t="n">
-        <v>1.09145</v>
+        <v>2.36996</v>
       </c>
       <c r="C41" t="n">
-        <v>1091.45</v>
+        <v>2369.96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24106</v>
+        <v>1.24202</v>
       </c>
       <c r="B42" t="n">
-        <v>1.09584</v>
+        <v>2.3782</v>
       </c>
       <c r="C42" t="n">
-        <v>1095.84</v>
+        <v>2378.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27203</v>
+        <v>1.27298</v>
       </c>
       <c r="B43" t="n">
-        <v>1.10018</v>
+        <v>2.38636</v>
       </c>
       <c r="C43" t="n">
-        <v>1100.18</v>
+        <v>2386.36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.303</v>
+        <v>1.30396</v>
       </c>
       <c r="B44" t="n">
-        <v>1.10448</v>
+        <v>2.39445</v>
       </c>
       <c r="C44" t="n">
-        <v>1104.48</v>
+        <v>2394.45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33397</v>
+        <v>1.33492</v>
       </c>
       <c r="B45" t="n">
-        <v>1.10873</v>
+        <v>2.40242</v>
       </c>
       <c r="C45" t="n">
-        <v>1108.73</v>
+        <v>2402.42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36494</v>
+        <v>1.36589</v>
       </c>
       <c r="B46" t="n">
-        <v>1.11292</v>
+        <v>2.41033</v>
       </c>
       <c r="C46" t="n">
-        <v>1112.92</v>
+        <v>2410.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.3959</v>
+        <v>1.39686</v>
       </c>
       <c r="B47" t="n">
-        <v>1.11709</v>
+        <v>2.41814</v>
       </c>
       <c r="C47" t="n">
-        <v>1117.09</v>
+        <v>2418.14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42687</v>
+        <v>1.42782</v>
       </c>
       <c r="B48" t="n">
-        <v>1.12116</v>
+        <v>2.42586</v>
       </c>
       <c r="C48" t="n">
-        <v>1121.16</v>
+        <v>2425.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45784</v>
+        <v>1.45879</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12522</v>
+        <v>2.43351</v>
       </c>
       <c r="C49" t="n">
-        <v>1125.22</v>
+        <v>2433.51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48881</v>
+        <v>1.48976</v>
       </c>
       <c r="B50" t="n">
-        <v>1.12918</v>
+        <v>2.44108</v>
       </c>
       <c r="C50" t="n">
-        <v>1129.18</v>
+        <v>2441.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51978</v>
+        <v>1.52073</v>
       </c>
       <c r="B51" t="n">
-        <v>1.13316</v>
+        <v>2.44857</v>
       </c>
       <c r="C51" t="n">
-        <v>1133.16</v>
+        <v>2448.57</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55074</v>
+        <v>1.55169</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13704</v>
+        <v>2.456</v>
       </c>
       <c r="C52" t="n">
-        <v>1137.04</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58171</v>
+        <v>1.58266</v>
       </c>
       <c r="B53" t="n">
-        <v>1.14096</v>
+        <v>2.46337</v>
       </c>
       <c r="C53" t="n">
-        <v>1140.96</v>
+        <v>2463.37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61268</v>
+        <v>1.61363</v>
       </c>
       <c r="B54" t="n">
-        <v>1.1448</v>
+        <v>2.47066</v>
       </c>
       <c r="C54" t="n">
-        <v>1144.8</v>
+        <v>2470.66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64365</v>
+        <v>1.6446</v>
       </c>
       <c r="B55" t="n">
-        <v>1.14864</v>
+        <v>2.47789</v>
       </c>
       <c r="C55" t="n">
-        <v>1148.64</v>
+        <v>2477.89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67462</v>
+        <v>1.67557</v>
       </c>
       <c r="B56" t="n">
-        <v>1.1524</v>
+        <v>2.48504</v>
       </c>
       <c r="C56" t="n">
-        <v>1152.4</v>
+        <v>2485.04</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70558</v>
+        <v>1.70653</v>
       </c>
       <c r="B57" t="n">
-        <v>1.15617</v>
+        <v>2.49214</v>
       </c>
       <c r="C57" t="n">
-        <v>1156.17</v>
+        <v>2492.14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73655</v>
+        <v>1.7375</v>
       </c>
       <c r="B58" t="n">
-        <v>1.15987</v>
+        <v>2.49917</v>
       </c>
       <c r="C58" t="n">
-        <v>1159.87</v>
+        <v>2499.17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76752</v>
+        <v>1.76847</v>
       </c>
       <c r="B59" t="n">
-        <v>1.16356</v>
+        <v>2.50614</v>
       </c>
       <c r="C59" t="n">
-        <v>1163.56</v>
+        <v>2506.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79849</v>
+        <v>1.79944</v>
       </c>
       <c r="B60" t="n">
-        <v>1.16723</v>
+        <v>2.51304</v>
       </c>
       <c r="C60" t="n">
-        <v>1167.23</v>
+        <v>2513.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82945</v>
+        <v>1.83041</v>
       </c>
       <c r="B61" t="n">
-        <v>1.17082</v>
+        <v>2.51987</v>
       </c>
       <c r="C61" t="n">
-        <v>1170.82</v>
+        <v>2519.87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86042</v>
+        <v>1.86137</v>
       </c>
       <c r="B62" t="n">
-        <v>1.17442</v>
+        <v>2.52663</v>
       </c>
       <c r="C62" t="n">
-        <v>1174.42</v>
+        <v>2526.63</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89139</v>
+        <v>1.89234</v>
       </c>
       <c r="B63" t="n">
-        <v>1.17793</v>
+        <v>2.53334</v>
       </c>
       <c r="C63" t="n">
-        <v>1177.93</v>
+        <v>2533.34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92236</v>
+        <v>1.92331</v>
       </c>
       <c r="B64" t="n">
-        <v>1.18147</v>
+        <v>2.53999</v>
       </c>
       <c r="C64" t="n">
-        <v>1181.47</v>
+        <v>2539.99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95332</v>
+        <v>1.95427</v>
       </c>
       <c r="B65" t="n">
-        <v>1.18492</v>
+        <v>2.54658</v>
       </c>
       <c r="C65" t="n">
-        <v>1184.92</v>
+        <v>2546.58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98429</v>
+        <v>1.98525</v>
       </c>
       <c r="B66" t="n">
-        <v>1.18838</v>
+        <v>2.55312</v>
       </c>
       <c r="C66" t="n">
-        <v>1188.38</v>
+        <v>2553.12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01521</v>
+        <v>2.01614</v>
       </c>
       <c r="B67" t="n">
-        <v>1.1918</v>
+        <v>2.55961</v>
       </c>
       <c r="C67" t="n">
-        <v>1191.8</v>
+        <v>2559.61</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04576</v>
+        <v>2.04669</v>
       </c>
       <c r="B68" t="n">
-        <v>1.19521</v>
+        <v>2.56605</v>
       </c>
       <c r="C68" t="n">
-        <v>1195.21</v>
+        <v>2566.05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07631</v>
+        <v>2.07725</v>
       </c>
       <c r="B69" t="n">
-        <v>1.19859</v>
+        <v>2.57243</v>
       </c>
       <c r="C69" t="n">
-        <v>1198.59</v>
+        <v>2572.43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10687</v>
+        <v>2.1078</v>
       </c>
       <c r="B70" t="n">
-        <v>1.20192</v>
+        <v>2.57876</v>
       </c>
       <c r="C70" t="n">
-        <v>1201.92</v>
+        <v>2578.76</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13742</v>
+        <v>2.13836</v>
       </c>
       <c r="B71" t="n">
-        <v>1.20525</v>
+        <v>2.58506</v>
       </c>
       <c r="C71" t="n">
-        <v>1205.25</v>
+        <v>2585.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16798</v>
+        <v>2.16892</v>
       </c>
       <c r="B72" t="n">
-        <v>1.20854</v>
+        <v>2.59129</v>
       </c>
       <c r="C72" t="n">
-        <v>1208.54</v>
+        <v>2591.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19853</v>
+        <v>2.19947</v>
       </c>
       <c r="B73" t="n">
-        <v>1.21183</v>
+        <v>2.59748</v>
       </c>
       <c r="C73" t="n">
-        <v>1211.83</v>
+        <v>2597.48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22909</v>
+        <v>2.23003</v>
       </c>
       <c r="B74" t="n">
-        <v>1.21509</v>
+        <v>2.60359</v>
       </c>
       <c r="C74" t="n">
-        <v>1215.09</v>
+        <v>2603.59</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.25964</v>
+        <v>2.26058</v>
       </c>
       <c r="B75" t="n">
-        <v>1.2183</v>
+        <v>2.60967</v>
       </c>
       <c r="C75" t="n">
-        <v>1218.3</v>
+        <v>2609.67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2902</v>
+        <v>2.29113</v>
       </c>
       <c r="B76" t="n">
-        <v>1.22149</v>
+        <v>2.6157</v>
       </c>
       <c r="C76" t="n">
-        <v>1221.49</v>
+        <v>2615.7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32075</v>
+        <v>2.32169</v>
       </c>
       <c r="B77" t="n">
-        <v>1.22465</v>
+        <v>2.62167</v>
       </c>
       <c r="C77" t="n">
-        <v>1224.65</v>
+        <v>2621.67</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35131</v>
+        <v>2.35224</v>
       </c>
       <c r="B78" t="n">
-        <v>1.22777</v>
+        <v>2.62761</v>
       </c>
       <c r="C78" t="n">
-        <v>1227.77</v>
+        <v>2627.61</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38186</v>
+        <v>2.3828</v>
       </c>
       <c r="B79" t="n">
-        <v>1.23086</v>
+        <v>2.63349</v>
       </c>
       <c r="C79" t="n">
-        <v>1230.86</v>
+        <v>2633.49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41242</v>
+        <v>2.41335</v>
       </c>
       <c r="B80" t="n">
-        <v>1.23393</v>
+        <v>2.63936</v>
       </c>
       <c r="C80" t="n">
-        <v>1233.93</v>
+        <v>2639.36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44386</v>
+        <v>2.4448</v>
       </c>
       <c r="B81" t="n">
-        <v>1.23705</v>
+        <v>2.64536</v>
       </c>
       <c r="C81" t="n">
-        <v>1237.05</v>
+        <v>2645.36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47544</v>
+        <v>2.47637</v>
       </c>
       <c r="B82" t="n">
-        <v>1.24016</v>
+        <v>2.65134</v>
       </c>
       <c r="C82" t="n">
-        <v>1240.16</v>
+        <v>2651.34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50701</v>
+        <v>2.50795</v>
       </c>
       <c r="B83" t="n">
-        <v>1.24327</v>
+        <v>2.65727</v>
       </c>
       <c r="C83" t="n">
-        <v>1243.27</v>
+        <v>2657.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53858</v>
+        <v>2.53952</v>
       </c>
       <c r="B84" t="n">
-        <v>1.24632</v>
+        <v>2.66316</v>
       </c>
       <c r="C84" t="n">
-        <v>1246.32</v>
+        <v>2663.16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57016</v>
+        <v>2.57109</v>
       </c>
       <c r="B85" t="n">
-        <v>1.24938</v>
+        <v>2.66899</v>
       </c>
       <c r="C85" t="n">
-        <v>1249.38</v>
+        <v>2668.99</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60173</v>
+        <v>2.60266</v>
       </c>
       <c r="B86" t="n">
-        <v>1.25238</v>
+        <v>2.67478</v>
       </c>
       <c r="C86" t="n">
-        <v>1252.38</v>
+        <v>2674.78</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.6333</v>
+        <v>2.63424</v>
       </c>
       <c r="B87" t="n">
-        <v>1.25537</v>
+        <v>2.68053</v>
       </c>
       <c r="C87" t="n">
-        <v>1255.37</v>
+        <v>2680.53</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66488</v>
+        <v>2.66581</v>
       </c>
       <c r="B88" t="n">
-        <v>1.25834</v>
+        <v>2.68623</v>
       </c>
       <c r="C88" t="n">
-        <v>1258.34</v>
+        <v>2686.23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69645</v>
+        <v>2.69738</v>
       </c>
       <c r="B89" t="n">
-        <v>1.26129</v>
+        <v>2.6919</v>
       </c>
       <c r="C89" t="n">
-        <v>1261.29</v>
+        <v>2691.9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72802</v>
+        <v>2.72896</v>
       </c>
       <c r="B90" t="n">
-        <v>1.26421</v>
+        <v>2.69754</v>
       </c>
       <c r="C90" t="n">
-        <v>1264.21</v>
+        <v>2697.54</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7596</v>
+        <v>2.76053</v>
       </c>
       <c r="B91" t="n">
-        <v>1.26712</v>
+        <v>2.70314</v>
       </c>
       <c r="C91" t="n">
-        <v>1267.12</v>
+        <v>2703.14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79117</v>
+        <v>2.79211</v>
       </c>
       <c r="B92" t="n">
-        <v>1.27003</v>
+        <v>2.70872</v>
       </c>
       <c r="C92" t="n">
-        <v>1270.03</v>
+        <v>2708.72</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82274</v>
+        <v>2.82368</v>
       </c>
       <c r="B93" t="n">
-        <v>1.27289</v>
+        <v>2.71425</v>
       </c>
       <c r="C93" t="n">
-        <v>1272.89</v>
+        <v>2714.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85431</v>
+        <v>2.85525</v>
       </c>
       <c r="B94" t="n">
-        <v>1.27573</v>
+        <v>2.71973</v>
       </c>
       <c r="C94" t="n">
-        <v>1275.73</v>
+        <v>2719.73</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88589</v>
+        <v>2.88683</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27855</v>
+        <v>2.72517</v>
       </c>
       <c r="C95" t="n">
-        <v>1278.55</v>
+        <v>2725.17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91746</v>
+        <v>2.9184</v>
       </c>
       <c r="B96" t="n">
-        <v>1.28134</v>
+        <v>2.73059</v>
       </c>
       <c r="C96" t="n">
-        <v>1281.34</v>
+        <v>2730.59</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94904</v>
+        <v>2.94997</v>
       </c>
       <c r="B97" t="n">
-        <v>1.28413</v>
+        <v>2.73597</v>
       </c>
       <c r="C97" t="n">
-        <v>1284.13</v>
+        <v>2735.97</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98061</v>
+        <v>2.98155</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2869</v>
+        <v>2.74132</v>
       </c>
       <c r="C98" t="n">
-        <v>1286.9</v>
+        <v>2741.32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01218</v>
+        <v>3.01312</v>
       </c>
       <c r="B99" t="n">
-        <v>1.28964</v>
+        <v>2.74664</v>
       </c>
       <c r="C99" t="n">
-        <v>1289.64</v>
+        <v>2746.64</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04376</v>
+        <v>3.04469</v>
       </c>
       <c r="B100" t="n">
-        <v>1.29238</v>
+        <v>2.75191</v>
       </c>
       <c r="C100" t="n">
-        <v>1292.38</v>
+        <v>2751.91</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07533</v>
+        <v>3.07627</v>
       </c>
       <c r="B101" t="n">
-        <v>1.29509</v>
+        <v>2.75718</v>
       </c>
       <c r="C101" t="n">
-        <v>1295.09</v>
+        <v>2757.18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.1069</v>
+        <v>3.10784</v>
       </c>
       <c r="B102" t="n">
-        <v>1.29778</v>
+        <v>2.76239</v>
       </c>
       <c r="C102" t="n">
-        <v>1297.78</v>
+        <v>2762.39</v>
       </c>
     </row>
   </sheetData>
